--- a/output/freezer_03_shelf2/c2_exceldata.xlsx
+++ b/output/freezer_03_shelf2/c2_exceldata.xlsx
@@ -28,7 +28,7 @@
     <t>F3-S2-R1</t>
   </si>
   <si>
-    <t>SHF25</t>
+    <t>SHF26</t>
   </si>
   <si>
     <t>F3-S2-R2</t>
